--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H2">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I2">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J2">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N2">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q2">
-        <v>125.2377999047462</v>
+        <v>248.626302849796</v>
       </c>
       <c r="R2">
-        <v>125.2377999047462</v>
+        <v>2237.636725648164</v>
       </c>
       <c r="S2">
-        <v>0.002485779074572241</v>
+        <v>0.004596165064957297</v>
       </c>
       <c r="T2">
-        <v>0.002485779074572241</v>
+        <v>0.004596165064957297</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H3">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I3">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J3">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N3">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P3">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q3">
-        <v>230.5784297454402</v>
+        <v>409.5904955404677</v>
       </c>
       <c r="R3">
-        <v>230.5784297454402</v>
+        <v>3686.314459864209</v>
       </c>
       <c r="S3">
-        <v>0.004576629708801036</v>
+        <v>0.007571787477686774</v>
       </c>
       <c r="T3">
-        <v>0.004576629708801036</v>
+        <v>0.007571787477686776</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H4">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I4">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J4">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N4">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q4">
-        <v>87.53810031178858</v>
+        <v>164.3226937084267</v>
       </c>
       <c r="R4">
-        <v>87.53810031178858</v>
+        <v>1478.90424337584</v>
       </c>
       <c r="S4">
-        <v>0.001737497609734067</v>
+        <v>0.003037708462642526</v>
       </c>
       <c r="T4">
-        <v>0.001737497609734067</v>
+        <v>0.003037708462642527</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H5">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I5">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J5">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N5">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q5">
-        <v>198.6787683168699</v>
+        <v>362.5184400954366</v>
       </c>
       <c r="R5">
-        <v>198.6787683168699</v>
+        <v>3262.66596085893</v>
       </c>
       <c r="S5">
-        <v>0.0039434701441537</v>
+        <v>0.006701602246710269</v>
       </c>
       <c r="T5">
-        <v>0.0039434701441537</v>
+        <v>0.00670160224671027</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>92.59680555783819</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H6">
-        <v>92.59680555783819</v>
+        <v>278.681984</v>
       </c>
       <c r="I6">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J6">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N6">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q6">
-        <v>8189.682897837754</v>
+        <v>9191.55645154014</v>
       </c>
       <c r="R6">
-        <v>8189.682897837754</v>
+        <v>82724.00806386124</v>
       </c>
       <c r="S6">
-        <v>0.1625526988681613</v>
+        <v>0.1699173022762354</v>
       </c>
       <c r="T6">
-        <v>0.1625526988681613</v>
+        <v>0.1699173022762355</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>92.59680555783819</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H7">
-        <v>92.59680555783819</v>
+        <v>278.681984</v>
       </c>
       <c r="I7">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J7">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N7">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P7">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q7">
-        <v>15078.22897026916</v>
+        <v>15142.30038665274</v>
       </c>
       <c r="R7">
-        <v>15078.22897026916</v>
+        <v>136280.7034798747</v>
       </c>
       <c r="S7">
-        <v>0.2992798187481063</v>
+        <v>0.2799241723120037</v>
       </c>
       <c r="T7">
-        <v>0.2992798187481063</v>
+        <v>0.2799241723120038</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>92.59680555783819</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H8">
-        <v>92.59680555783819</v>
+        <v>278.681984</v>
       </c>
       <c r="I8">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J8">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N8">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q8">
-        <v>5724.384200121132</v>
+        <v>6074.905583914099</v>
       </c>
       <c r="R8">
-        <v>5724.384200121132</v>
+        <v>54674.15025522689</v>
       </c>
       <c r="S8">
-        <v>0.113620284533071</v>
+        <v>0.112302151854658</v>
       </c>
       <c r="T8">
-        <v>0.113620284533071</v>
+        <v>0.1123021518546581</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>92.59680555783819</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H9">
-        <v>92.59680555783819</v>
+        <v>278.681984</v>
       </c>
       <c r="I9">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J9">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N9">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q9">
-        <v>12992.21251320047</v>
+        <v>13402.07640409842</v>
       </c>
       <c r="R9">
-        <v>12992.21251320047</v>
+        <v>120618.6876368858</v>
       </c>
       <c r="S9">
-        <v>0.2578755776792069</v>
+        <v>0.2477539771953223</v>
       </c>
       <c r="T9">
-        <v>0.2578755776792069</v>
+        <v>0.2477539771953224</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.30794607477179</v>
+        <v>1.610639333333333</v>
       </c>
       <c r="H10">
-        <v>1.30794607477179</v>
+        <v>4.831918</v>
       </c>
       <c r="I10">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="J10">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N10">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q10">
-        <v>115.6807034035509</v>
+        <v>159.3674855788773</v>
       </c>
       <c r="R10">
-        <v>115.6807034035509</v>
+        <v>1434.307370209896</v>
       </c>
       <c r="S10">
-        <v>0.00229608530388633</v>
+        <v>0.002946105304675824</v>
       </c>
       <c r="T10">
-        <v>0.00229608530388633</v>
+        <v>0.002946105304675825</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.30794607477179</v>
+        <v>1.610639333333333</v>
       </c>
       <c r="H11">
-        <v>1.30794607477179</v>
+        <v>4.831918</v>
       </c>
       <c r="I11">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="J11">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N11">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P11">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q11">
-        <v>212.9826215641457</v>
+        <v>262.5442547433362</v>
       </c>
       <c r="R11">
-        <v>212.9826215641457</v>
+        <v>2362.898292690026</v>
       </c>
       <c r="S11">
-        <v>0.004227379787367441</v>
+        <v>0.00485345563934794</v>
       </c>
       <c r="T11">
-        <v>0.004227379787367441</v>
+        <v>0.004853455639347941</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.30794607477179</v>
+        <v>1.610639333333333</v>
       </c>
       <c r="H12">
-        <v>1.30794607477179</v>
+        <v>4.831918</v>
       </c>
       <c r="I12">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="J12">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N12">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q12">
-        <v>80.85792808864676</v>
+        <v>105.3295416441956</v>
       </c>
       <c r="R12">
-        <v>80.85792808864676</v>
+        <v>947.9658747977602</v>
       </c>
       <c r="S12">
-        <v>0.001604906392550002</v>
+        <v>0.001947146999589524</v>
       </c>
       <c r="T12">
-        <v>0.001604906392550002</v>
+        <v>0.001947146999589524</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.30794607477179</v>
+        <v>1.610639333333333</v>
       </c>
       <c r="H13">
-        <v>1.30794607477179</v>
+        <v>4.831918</v>
       </c>
       <c r="I13">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="J13">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N13">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q13">
-        <v>183.5172742393059</v>
+        <v>232.3714410413355</v>
       </c>
       <c r="R13">
-        <v>183.5172742393059</v>
+        <v>2091.34296937202</v>
       </c>
       <c r="S13">
-        <v>0.003642537640181861</v>
+        <v>0.004295673817155211</v>
       </c>
       <c r="T13">
-        <v>0.003642537640181861</v>
+        <v>0.004295673817155212</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.7960719698165</v>
+        <v>17.68108066666667</v>
       </c>
       <c r="H14">
-        <v>15.7960719698165</v>
+        <v>53.04324200000001</v>
       </c>
       <c r="I14">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="J14">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N14">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q14">
-        <v>1397.076493998663</v>
+        <v>1749.485008746403</v>
       </c>
       <c r="R14">
-        <v>1397.076493998663</v>
+        <v>15745.36507871762</v>
       </c>
       <c r="S14">
-        <v>0.02772983489808989</v>
+        <v>0.03234139665313101</v>
       </c>
       <c r="T14">
-        <v>0.02772983489808989</v>
+        <v>0.03234139665313102</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.7960719698165</v>
+        <v>17.68108066666667</v>
       </c>
       <c r="H15">
-        <v>15.7960719698165</v>
+        <v>53.04324200000001</v>
       </c>
       <c r="I15">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="J15">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N15">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P15">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q15">
-        <v>2572.192297097904</v>
+        <v>2882.126401992011</v>
       </c>
       <c r="R15">
-        <v>2572.192297097904</v>
+        <v>25939.1376179281</v>
       </c>
       <c r="S15">
-        <v>0.05105408904312415</v>
+        <v>0.0532796752788846</v>
       </c>
       <c r="T15">
-        <v>0.05105408904312415</v>
+        <v>0.05327967527888462</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.7960719698165</v>
+        <v>17.68108066666667</v>
       </c>
       <c r="H16">
-        <v>15.7960719698165</v>
+        <v>53.04324200000001</v>
       </c>
       <c r="I16">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="J16">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N16">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q16">
-        <v>976.5216441674505</v>
+        <v>1156.273837259272</v>
       </c>
       <c r="R16">
-        <v>976.5216441674505</v>
+        <v>10406.46453533344</v>
       </c>
       <c r="S16">
-        <v>0.01938246336796545</v>
+        <v>0.02137515361576935</v>
       </c>
       <c r="T16">
-        <v>0.01938246336796545</v>
+        <v>0.02137515361576936</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.7960719698165</v>
+        <v>17.68108066666667</v>
       </c>
       <c r="H17">
-        <v>15.7960719698165</v>
+        <v>53.04324200000001</v>
       </c>
       <c r="I17">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="J17">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N17">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q17">
-        <v>2216.339134695916</v>
+        <v>2550.898955868931</v>
       </c>
       <c r="R17">
-        <v>2216.339134695916</v>
+        <v>22958.09060282038</v>
       </c>
       <c r="S17">
-        <v>0.04399094720102846</v>
+        <v>0.04715652580123</v>
       </c>
       <c r="T17">
-        <v>0.04399094720102846</v>
+        <v>0.04715652580123001</v>
       </c>
     </row>
   </sheetData>
